--- a/flatfiles/test_keywords.xlsx
+++ b/flatfiles/test_keywords.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
   <si>
     <t xml:space="preserve">Трудоустройство</t>
   </si>
@@ -34,12 +34,24 @@
     <t xml:space="preserve">Каналы</t>
   </si>
   <si>
+    <t xml:space="preserve">Отпуск, материальная помощь, больничный</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Номинации</t>
+  </si>
+  <si>
     <t xml:space="preserve">работа</t>
   </si>
   <si>
     <t xml:space="preserve">Добавить</t>
   </si>
   <si>
+    <t xml:space="preserve">отпуск</t>
+  </si>
+  <si>
+    <t xml:space="preserve">номинация</t>
+  </si>
+  <si>
     <t xml:space="preserve">трудойстройство</t>
   </si>
   <si>
@@ -52,6 +64,12 @@
     <t xml:space="preserve">Канал</t>
   </si>
   <si>
+    <t xml:space="preserve">материальная</t>
+  </si>
+  <si>
+    <t xml:space="preserve">номинации</t>
+  </si>
+  <si>
     <t xml:space="preserve">устроить на работу</t>
   </si>
   <si>
@@ -61,6 +79,12 @@
     <t xml:space="preserve">каналы</t>
   </si>
   <si>
+    <t xml:space="preserve">помощь</t>
+  </si>
+  <si>
+    <t xml:space="preserve">номенацию</t>
+  </si>
+  <si>
     <t xml:space="preserve">официально</t>
   </si>
   <si>
@@ -68,6 +92,9 @@
   </si>
   <si>
     <t xml:space="preserve">чат</t>
+  </si>
+  <si>
+    <t xml:space="preserve">больничный</t>
   </si>
   <si>
     <t xml:space="preserve">документы</t>
@@ -197,15 +224,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6953125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.33"/>
   </cols>
   <sheetData>
@@ -222,10 +249,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
@@ -234,74 +267,95 @@
         <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D8" s="0" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="D9" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
